--- a/Food_new_version.xlsx
+++ b/Food_new_version.xlsx
@@ -1015,11 +1015,11 @@
   </sheetPr>
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D94" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H107" activeCellId="0" sqref="H107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E90" activeCellId="0" sqref="E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.23"/>
@@ -2314,8 +2314,12 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="38"/>
+      <c r="D54" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F54" s="38"/>
       <c r="J54" s="0" t="n">
         <v>6</v>
@@ -2756,8 +2760,12 @@
         <f aca="false">AVERAGE(C73:C76)</f>
         <v>19.55</v>
       </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="42"/>
+      <c r="D72" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="F72" s="42"/>
       <c r="G72" s="0" t="s">
         <v>87</v>
@@ -2775,8 +2783,12 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="38"/>
+      <c r="D73" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F73" s="38"/>
       <c r="G73" s="12" t="s">
         <v>87</v>
@@ -2793,8 +2805,12 @@
         <v>1.17</v>
       </c>
       <c r="C74" s="7"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="38"/>
+      <c r="D74" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F74" s="38"/>
       <c r="G74" s="12" t="s">
         <v>87</v>
@@ -2813,8 +2829,12 @@
       <c r="C75" s="16" t="n">
         <v>8.8</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="38"/>
+      <c r="D75" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F75" s="38"/>
       <c r="G75" s="12" t="s">
         <v>87</v>
@@ -2833,8 +2853,12 @@
       <c r="C76" s="31" t="n">
         <v>30.3</v>
       </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="43"/>
+      <c r="D76" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="F76" s="43"/>
       <c r="G76" s="12" t="s">
         <v>87</v>
@@ -2980,8 +3004,12 @@
         <f aca="false">AVERAGE(C83:C90)</f>
         <v>45.65</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="42"/>
+      <c r="D82" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="42" t="n">
+        <v>0</v>
+      </c>
       <c r="F82" s="42"/>
       <c r="G82" s="12" t="s">
         <v>87</v>
@@ -3003,8 +3031,12 @@
       <c r="C83" s="7" t="n">
         <v>67.3</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="38"/>
+      <c r="D83" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F83" s="38"/>
       <c r="G83" s="12" t="s">
         <v>87</v>
@@ -3019,8 +3051,12 @@
       </c>
       <c r="B84" s="44"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="38"/>
+      <c r="D84" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F84" s="38"/>
       <c r="G84" s="12" t="s">
         <v>87</v>
@@ -3037,8 +3073,12 @@
         <v>99</v>
       </c>
       <c r="C85" s="7"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="38"/>
+      <c r="D85" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F85" s="38"/>
       <c r="G85" s="12" t="s">
         <v>87</v>
@@ -3055,8 +3095,12 @@
       <c r="C86" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="38"/>
+      <c r="D86" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F86" s="38"/>
       <c r="G86" s="12" t="s">
         <v>87</v>
@@ -3073,8 +3117,12 @@
         <v>0.822</v>
       </c>
       <c r="C87" s="7"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="38"/>
+      <c r="D87" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F87" s="38"/>
       <c r="G87" s="12" t="s">
         <v>87</v>
@@ -3092,9 +3140,13 @@
         <v>0.63</v>
       </c>
       <c r="C88" s="7"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="38"/>
+      <c r="D88" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" s="45"/>
       <c r="G88" s="12" t="s">
         <v>87</v>
       </c>
@@ -3111,8 +3163,12 @@
         <v>0.944444444444444</v>
       </c>
       <c r="C89" s="7"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="38"/>
+      <c r="D89" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="38" t="n">
+        <v>0</v>
+      </c>
       <c r="F89" s="38"/>
       <c r="G89" s="12" t="s">
         <v>87</v>
@@ -3127,8 +3183,12 @@
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="31"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="43"/>
+      <c r="D90" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="F90" s="43"/>
       <c r="G90" s="12" t="s">
         <v>87</v>
@@ -4022,11 +4082,11 @@
       </c>
       <c r="F130" s="0" t="n">
         <f aca="false">AVERAGE(E3:F124)</f>
-        <v>3.63098987538941</v>
+        <v>3.18455669398907</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="137">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4122,6 +4182,7 @@
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
     <mergeCell ref="E89:F89"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E91:F91"/>
